--- a/nuoc_ngoai/tong_hop.xlsx
+++ b/nuoc_ngoai/tong_hop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Năm</t>
   </si>
@@ -56,16 +56,7 @@
     <t>Taipei (Đài Loan)</t>
   </si>
   <si>
-    <t>Bắc Kinh (Trung Quốc)</t>
-  </si>
-  <si>
-    <t>Thượng Hải (Trung Quốc)</t>
-  </si>
-  <si>
     <t>Thâm Quyến (Trung Quốc)</t>
-  </si>
-  <si>
-    <t>Tokyo (Nhật Bản)</t>
   </si>
   <si>
     <t>Osaka (Nhật Bản)</t>
@@ -1006,18 +997,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
+    <col min="12" max="12" width="10.5714285714286"/>
     <col min="15" max="15" width="10.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1054,17 +1046,8 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1093,25 +1076,16 @@
         <v>91</v>
       </c>
       <c r="J2">
-        <v>511.6</v>
+        <v>381.4</v>
       </c>
       <c r="K2">
-        <v>550</v>
+        <v>377.9</v>
       </c>
       <c r="L2">
-        <v>381.4</v>
-      </c>
-      <c r="M2">
-        <v>1061.3</v>
-      </c>
-      <c r="N2">
-        <v>377.9</v>
-      </c>
-      <c r="O2">
         <v>78.914615</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -1140,25 +1114,16 @@
         <v>90</v>
       </c>
       <c r="J3">
-        <v>484</v>
+        <v>374</v>
       </c>
       <c r="K3">
-        <v>520</v>
+        <v>350</v>
       </c>
       <c r="L3">
-        <v>374</v>
-      </c>
-      <c r="M3">
-        <v>1020</v>
-      </c>
-      <c r="N3">
-        <v>350</v>
-      </c>
-      <c r="O3">
         <v>79.039115</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1187,25 +1152,16 @@
         <v>98</v>
       </c>
       <c r="J4">
-        <v>547</v>
+        <v>450</v>
       </c>
       <c r="K4">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="L4">
-        <v>450</v>
-      </c>
-      <c r="M4">
-        <v>990</v>
-      </c>
-      <c r="N4">
-        <v>330</v>
-      </c>
-      <c r="O4">
         <v>79.515269</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -1234,25 +1190,16 @@
         <v>100</v>
       </c>
       <c r="J5">
-        <v>671.9</v>
+        <v>470</v>
       </c>
       <c r="K5">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="L5">
-        <v>470</v>
-      </c>
-      <c r="M5">
-        <v>920</v>
-      </c>
-      <c r="N5">
-        <v>300</v>
-      </c>
-      <c r="O5">
         <v>90.243423</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -1281,21 +1228,12 @@
         <v>105</v>
       </c>
       <c r="J6">
-        <v>672</v>
+        <v>500</v>
       </c>
       <c r="K6">
-        <v>610</v>
+        <v>290</v>
       </c>
       <c r="L6">
-        <v>500</v>
-      </c>
-      <c r="M6">
-        <v>890</v>
-      </c>
-      <c r="N6">
-        <v>290</v>
-      </c>
-      <c r="O6">
         <v>96.1765</v>
       </c>
     </row>
